--- a/1st session package.xlsx
+++ b/1st session package.xlsx
@@ -8,12 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abhin\Desktop\fidelity core java 16th march\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9D807845-4669-4E9B-9D85-405C25D9D56D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62C9F87B-8FBA-488D-8536-910CFC2B019C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="12240" windowHeight="8640" xr2:uid="{53100BFC-0026-455D-9376-AB0DEF94209D}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="12240" windowHeight="8640" firstSheet="1" activeTab="2" xr2:uid="{53100BFC-0026-455D-9376-AB0DEF94209D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="singleton pattern" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -31,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="115">
   <si>
     <t>package</t>
   </si>
@@ -76,13 +79,325 @@
   </si>
   <si>
     <t>entry point of application / main method</t>
+  </si>
+  <si>
+    <t>OOP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">object </t>
+  </si>
+  <si>
+    <t>fields/ properties</t>
+  </si>
+  <si>
+    <t>function/mehtods</t>
+  </si>
+  <si>
+    <t>Employee</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>firstname</t>
+  </si>
+  <si>
+    <t>lastname</t>
+  </si>
+  <si>
+    <t>salary</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>designation</t>
+  </si>
+  <si>
+    <t>calculatesalary</t>
+  </si>
+  <si>
+    <t>calculateTax</t>
+  </si>
+  <si>
+    <t>etc</t>
+  </si>
+  <si>
+    <t>Department</t>
+  </si>
+  <si>
+    <t>fields</t>
+  </si>
+  <si>
+    <t>functions</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>gettingEmpllist</t>
+  </si>
+  <si>
+    <t>gettingid</t>
+  </si>
+  <si>
+    <t>field types</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>varchar2(size)</t>
+  </si>
+  <si>
+    <t>number(10,3)</t>
+  </si>
+  <si>
+    <t>DB</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>predefined class/not data type</t>
+  </si>
+  <si>
+    <t>string is a collection of chars</t>
+  </si>
+  <si>
+    <t>array</t>
+  </si>
+  <si>
+    <t>primary data type</t>
+  </si>
+  <si>
+    <t>public</t>
+  </si>
+  <si>
+    <t xml:space="preserve">private </t>
+  </si>
+  <si>
+    <t>protected</t>
+  </si>
+  <si>
+    <t>default</t>
+  </si>
+  <si>
+    <t>any where</t>
+  </si>
+  <si>
+    <t>only inside the class</t>
+  </si>
+  <si>
+    <t>only inside the same package and in inherited classes</t>
+  </si>
+  <si>
+    <t>only inside the package</t>
+  </si>
+  <si>
+    <t>private</t>
+  </si>
+  <si>
+    <t>all fields must be private except some consts.</t>
+  </si>
+  <si>
+    <t>modifier</t>
+  </si>
+  <si>
+    <t>accesibility</t>
+  </si>
+  <si>
+    <t>constructors : are used to initialize the data</t>
+  </si>
+  <si>
+    <t>Employee employee = new Employee()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1st ref employee is created in stack </t>
+  </si>
+  <si>
+    <t>then it will create an instance/ object in heap (bcoz of new keyword)</t>
+  </si>
+  <si>
+    <t>then it will call constructor</t>
+  </si>
+  <si>
+    <t>have we declared any constructor in Employee class?</t>
+  </si>
+  <si>
+    <t>NO but we are creating object using constructor</t>
+  </si>
+  <si>
+    <t>when we will not declare a constructor then java will introduce a default constructor(implicit default constructor)</t>
+  </si>
+  <si>
+    <t>there are 2 types of constructors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">default constructor </t>
+  </si>
+  <si>
+    <t>parameterized constructor</t>
+  </si>
+  <si>
+    <t>implicit</t>
+  </si>
+  <si>
+    <t>explicit</t>
+  </si>
+  <si>
+    <t>will be provided by developer)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">(will be provided by java / jvm </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>if there is no constructor declaration</t>
+    </r>
+  </si>
+  <si>
+    <t>only 1 explicit default constructor will be added</t>
+  </si>
+  <si>
+    <t xml:space="preserve">parameterized constructor </t>
+  </si>
+  <si>
+    <t>1 paramertrized constructor</t>
+  </si>
+  <si>
+    <t>purpose</t>
+  </si>
+  <si>
+    <t>will initialize the fields to the default values based on type(int - 0 float -0 double -0 boolean - false &amp; ref -null)</t>
+  </si>
+  <si>
+    <t>we can get a chance to initialize the values as per our req. but these values will be default for fields</t>
+  </si>
+  <si>
+    <t>customized values if we want to provide then use parameterized one.</t>
+  </si>
+  <si>
+    <t>constructors will be called once in a entire life cycle of object</t>
+  </si>
+  <si>
+    <t>constructors will come to initialize the object for the 1st time. Later if you want to modify the object contents use setter methods for the same.</t>
+  </si>
+  <si>
+    <t>only 1</t>
+  </si>
+  <si>
+    <t>employee , dept , loc</t>
+  </si>
+  <si>
+    <t>design pattern called singleton design pattern</t>
+  </si>
+  <si>
+    <t>design pattern : they are the common solutions to common problems</t>
+  </si>
+  <si>
+    <t>to create a single object : singleton pattern</t>
+  </si>
+  <si>
+    <t xml:space="preserve">singleton pattern </t>
+  </si>
+  <si>
+    <t>we should have 1 private constructor.</t>
+  </si>
+  <si>
+    <t>we should have only 1 constructor declaration (private constructor).</t>
+  </si>
+  <si>
+    <t>we need to create an instance of that class in the same class itself.</t>
+  </si>
+  <si>
+    <t>can we declare a method ?</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>what would be the scope of that method?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">public </t>
+  </si>
+  <si>
+    <t>but this public method should be independent on the object for execution</t>
+  </si>
+  <si>
+    <t xml:space="preserve">static </t>
+  </si>
+  <si>
+    <t>public static CLN getInstance() {}</t>
+  </si>
+  <si>
+    <t>do we need a ref to store object ?</t>
+  </si>
+  <si>
+    <t>which type of ref is req?</t>
+  </si>
+  <si>
+    <t>static methods can access only static data</t>
+  </si>
+  <si>
+    <t>static type</t>
+  </si>
+  <si>
+    <t>when u will declare a static data then only 1 copy is available.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">for non static data </t>
+  </si>
+  <si>
+    <t>no of objs = non static data copy</t>
+  </si>
+  <si>
+    <t>can I check whether the single copy is having object or not?</t>
+  </si>
+  <si>
+    <t>can we use if else to check whether the object is there or not?</t>
+  </si>
+  <si>
+    <t>if(employee == null) { create object } else {return same one}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">overriding toString() </t>
+  </si>
+  <si>
+    <t>overriding equals()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">overriding hashCode() </t>
+  </si>
+  <si>
+    <t>used to describe the object</t>
+  </si>
+  <si>
+    <t>used to check whether the objects are equal or not (based on field)</t>
+  </si>
+  <si>
+    <t>used to get unique code against every object (if contents from two objects are same then they should have same hashcode value)</t>
+  </si>
+  <si>
+    <t>Methods from object class</t>
+  </si>
+  <si>
+    <t>Description</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -90,8 +405,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -104,8 +434,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -113,13 +461,43 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -434,10 +812,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3C7C68F-50F0-42E8-AD35-F853462D87A6}">
-  <dimension ref="D4:E12"/>
+  <dimension ref="A4:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:E12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -446,12 +824,12 @@
     <col min="5" max="5" width="47.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D6" s="1" t="s">
         <v>1</v>
       </c>
@@ -459,7 +837,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D7" s="1" t="s">
         <v>3</v>
       </c>
@@ -467,7 +845,16 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8" t="s">
+        <v>81</v>
+      </c>
       <c r="D8" s="1" t="s">
         <v>4</v>
       </c>
@@ -475,7 +862,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D9" s="1" t="s">
         <v>5</v>
       </c>
@@ -483,7 +870,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D10" s="1" t="s">
         <v>6</v>
       </c>
@@ -491,7 +878,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D11" t="s">
         <v>7</v>
       </c>
@@ -499,15 +886,519 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D12" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E12" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D14" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D15" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D16" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D17" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D18" s="1" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED847559-E74E-47EB-B5E2-0F1134AE05DE}">
+  <dimension ref="D2:F14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="66.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D2" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D3" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D4" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D5" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="E5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D6" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="E6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D7" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D8" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="E8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D9" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D10" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D11" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="12" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D12" t="s">
+        <v>104</v>
+      </c>
+      <c r="F12" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="13" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D13" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="14" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D14" t="s">
+        <v>106</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95C23CC0-A04E-4B36-8379-287E4FFFA473}">
+  <dimension ref="B1:C4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="35.5546875" customWidth="1"/>
+    <col min="3" max="3" width="38.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B1" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B2" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B3" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B4" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>112</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89E0F0B7-EFDE-46A1-8A36-3E7E3C61CDFD}">
+  <dimension ref="A1:I33"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5:H5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="27.5546875" customWidth="1"/>
+    <col min="5" max="5" width="27.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="47.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="98.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" t="s">
+        <v>37</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" t="s">
+        <v>40</v>
+      </c>
+      <c r="F13" t="s">
+        <v>37</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+      <c r="H15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" t="s">
+        <v>30</v>
+      </c>
+      <c r="H16" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" t="s">
+        <v>20</v>
+      </c>
+      <c r="H17" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" t="s">
+        <v>32</v>
+      </c>
+      <c r="H18" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="H19" t="s">
+        <v>62</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="H20" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H21" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H23" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H25" t="s">
+        <v>68</v>
+      </c>
+      <c r="I25" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H26" t="s">
+        <v>71</v>
+      </c>
+      <c r="I26" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H27" t="s">
+        <v>69</v>
+      </c>
+      <c r="I27" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H28" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H29" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H31" t="s">
+        <v>73</v>
+      </c>
+      <c r="I31" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="33" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H33" t="s">
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>